--- a/500all/speech_level/speeches_CHRG-114hhrg95658.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95658.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="552">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. The Committee on Oversight and Government Reform will come to order.    And, without objection, the chair is authorized to declare a recess at any time.    Today's hearing is about the IRS and the targeting that has happened there. We have had updates from the Inspector General's Office, and we are here for another such update. We appreciate Mr. George and Mr. Camus for being here with us.    And, as we start this hearing, I would like to walk through why we are here at this particular time.    There was targeting of people who were trying to exercise their First Amendment rights. This was done because of their political beliefs.    Dave Camp and the Ways and Means Committee did some exceptional work unearthing this and talking to then the IRS Commissioner, Mr. Shulman, about this. He had assured the committee, assured the Congress--which, when you talk to Congress, you are talking to the American people--that none of this targeting had ever occurred.    That is when the Inspector General's Office started to get involved and they started to look at it. Later, they came back and provided a report, and that report happened in, I believe, 2013.    Now, keep in mind, when we had this information going on, there was a preservation order that was put in place asking and requiring the IRS to preserve these documents. Chairman Issa, then the chairman of the Oversight and Government Reform Committee, in August of 2013 issued a subpoena asking for this information and these documents.    But then you move forward, and this is where it just sort of starts to get unbelievable. It stretches the imagination beyond comparison. And we are supposed to believe this wide array of facts just happened to come together in such an odd and peculiar way.    Again, remember the IRS Commissioner said, ``There is absolutely no targeting.'' Now, when this first came to light, the President was actually very good on this topic. He said that he would work with Congress and then somehow magically concluded, even though the Department of Justice had not completed their investigation, the Inspector General had not concluded their investigation, the United States Congress had not concluded an investigation either in the House or the Senate, but somehow, magically, the President came to the conclusion that there was, ``not even a, smidgen of corruption.''    Now, interesting thing about that timing, that happened to be Super Bowl Sunday. So Super Bowl Sunday in 2014, the President makes his comment. We have heard from an IRS official where she said, ``That's the exact same day that I remember looking and realizing that there were some emails missing.'' Now, this thing has gone on for years. It is just coincidental that the President is on national television, and she says and has told us that, ``Whoops, there's some emails missing.''    Again, remember, for 10 months there was a preservation order in place; for 7 months there was a subpoena in place. We have been assured multiple times by the IRS that they were doing everything, bending over backwards, giving us all kinds of stats and metrics about how many emails and how many people were working hard on this. But the one thing we wanted to have, evidence, to let the facts take us wherever they may be, that one thing just went missing the exact same time, just within hours of the President making that comment.    But what we are going to hear today makes it even more stunning, because what the Inspector General has evidently learned is that that evidence on that day that the President said that, on the day that the Inspector General--or the day that the IRS person said there are missing emails, they weren't missing at that point. They weren't destroyed. What we are going to hear from the Inspector General's Office today is that those emails were destroyed 30 days later. February 4, Super Bowl Sunday--or the 2nd, Super Bowl Sunday, pardon me, you know, they are missing. But they weren't missing. They got destroyed just about 30 days later.    Twenty-two days after that, the IRS Commissioner, on March 26--I remember because it was my birthday--IRS Commissioner comes here and testifies and tells us essentially that they have the emails, it's going to take years to provide them, but they will get us those emails, in a direct question that I had asked him. But they had destroyed them 22 days prior. They knew that there was a problem with it back in February, supposedly.    And it wasn't until June that the IRS then confirmed or buried in the back of a letter to the United States Senate, to Senator Orrin Hatch's committee, Senator Wyden's committee, that, oops, we think there's a problem with the emails.    Then the Inspector General, that catches their attention, so what do they do? They put a team together, and they say, you know what? Let's go see if we can find those emails. Because, remember, at this point, the IRS has had years to do it, and they couldn't find them. They think there's a problem.    The Inspector General's Office puts a team together, and within about 2 weeks they go and find them. They show up at this so-called cage and go ask and go look for these emails. Nope, they have been sitting there the whole time. Has anything ever happened to those? No, nobody even asked us for them. That is the testimony we heard in a previous hearing.    And we are supposed to believe all this in the context of an FBI investigation that is led by a max-out donor to the Obama administration; a contempt from Lois Lerner--the House of Representatives, in a very unprecedented--it doesn't happen very often around here--holds Lois Lerner in contempt; a statute that says they shall refer that to the grand jury. The U.S. Attorney for the District of Columbia looks at that for 10 months and, 2 days or so, roughly, before Mr. Machen steps away from that job, says, ``You know what? We just think it shouldn't be referred,'' even though the statute says it shall. And that is a potential hearing and maybe something that we will look at later.    But part of what we are going to find today is that there are some 24,000 emails, potential emails, that were destroyed. It is a destruction of evidence.    We want to pursue the facts. I know there are Democrats on the other side of the aisle that say, hey, there is nothing here, let's move on, it is no big deal. Let the evidence speak. But when there is a destruction of evidence, that goes to a whole other level.    One of the things we are going to hear from the Inspector General today is that five of the six sources where they could find this email the IRS didn't even look. And yet we have heard multiple, multiple testimonies from the IRS Commissioner saying, oh, we are working so hard, we got all these people, we are spending millions of dollars, it is taking all these resources. They didn't even look in the most obvious places, like her phone.    You add this all in combination, it just defies any sense of logic. It gets to the point where it truly gets to be unbelievable. Somebody has to be held accountable.    Imagine if this was all reversed. Right? Imagine if you were on the receiving end of an inquiry from the IRS, and they asked you for documents, and they issued you a subpoena and you destroyed the evidence, and you had that evidence. What would happen to you? You would be prosecuted to the fullest. You would end up in jail. And you probably should.    That is what we are dealing with here. This should have been disposed of a long time ago. But we have been misled; there has been evidence that has been destroyed.    And so we appreciate this hearing today. These two men who are here before us have done some exceptional work. They are supported by a great number of people on their staff who do very important, impartial work. And we count on their opinions.    Let me be fair in this conclusion. Part of what they are going to say today is they have found no evidence that this was done willfully, that this was some purposeful direction from any one person, whether it be the White House or below. Understood. But the bottom line is they had the evidence, there was a preservation order in place, there was a subpoena in place, and that evidence was destroyed.    And we are going to hear this testimony. My understanding is next week they are going to issue a rather lengthy report. We look forward to seeing that report. Given that next week is the Fourth of July recess, we thought it appropriate to bring them before us here to get their verbal comments, an opportunity to question them. We look forward to hearing and reading their report in its totality. And then we are going to have to figure out a way of moving forward.    But people need to be held accountable, and we are going to get to the truth.    With that, I am going to yield back and recognize our ranking member, Mr. Cummings.</t>
   </si>
   <si>
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman.    And I am very glad that we are having this hearing. And I am glad that at the very end of your statement you said that there would be testimony, I take it from Mr. George, that these documents were not destroyed willfully. And I am glad you said that, because you had said a number of things already. And I think that there are many IRS employees who are working very, very hard, short of staff, giving it everything they got so that they can do their job so that we can have the resources, as a government, to exist.    And I want to take a moment to thank all of those employees who are working so very hard.    This Oversight Committee is now holding our 22nd IRS hearing--22. Some people tuning in today may not realize it, but this investigation is still going on. They also may not realize that they, the American taxpayers, have spent more than $20 million on this investigation so far--$20 million. The total does not include the millions of additional dollars spent by the Inspector General, who is here to testify before us yet again.    And I want to thank you, Mr. George, for your hard work and all the work you have done in regard to this investigation.    This investigation has squandered tens of millions of taxpayer dollars in a failed scavenger hunt for any possible evidence to support Republican accusations against Lois Lerner, the IRS, and the White House. More than 250 IRS employees have now spent more than 160,000 hours producing more than a million pages of documents to Congress--250 employees, who could be doing audits, making sure that people are paying their rightful share of taxes, making sure that the collection process is done properly, answering questions of our constituents as they try to make sure that they are doing the right thing. But 250 folks, 160,000 hours.    Yet the Inspector General will testify again today that his conclusions remain the same.    The chairman said, let the facts--let the evidence speak. I agree with that. There is still no evidence to support Republican allegations that the White House was involved, that Ms. Lerner ordered the targeting of conservative groups for political reasons, or that she intentionally crashed her computer to conceal her emails.    Today, the Inspector General will testify about this investigation into the status of Ms. Lerner's emails. Unfortunately, the Inspector General's Office has repeatedly overstated the number of, ``new,'' emails they recovered from backup tapes and other sources.    In February--and we need to listen to this. In February, officials from the Inspector General's Office briefed our committee and others, reporting that they had found 80,000--80,000--emails from Ms. Lerner, a fact that was leaked to the press with great fanfare, headlines--80,000.    Then, on February 26, the Deputy Inspector General for Investigations testified before this committee that many of those emails were actually duplicates. So we went from 80,000, and he testified there was only 32,000. February.    Last week, on June 16, the Inspector General's chief counsel sent a letter to this committee stating that the total number of new emails went down again, keep in mind, from 32,000, this time explaining that only 6,400 emails, ``appear to not have been produced to Congress.''    You guessed it. But today we have gone from the 6,400 only 9 days ago, and the Inspector General will testify that the total has plummeted to a little more than 1,000 emails that Congress did not already have. Boy, that is a hell of a drop, from 80,000 to 1,000.    Inspectors general are not supposed to provide speculative, unconfirmed, and inaccurate information to Congress. I think Mr. George would agree with that. They are not supposed to provide information they know is not credible. Yet that is what happened in this case. Based on this record, I do not know why anyone would have confidence in any of the numbers issued by the Inspector General.    For those who want to cut to the bottom line, you need to turn to page 6 of the Inspector General's written testimony for today's hearing. It is buried, I got to tell you, it is buried now, but it says, ``A review of these emails did not provide additional information for the purposes of our investigation.'' And I hope that Mr. George will explain that.    So, after all of this work and after spending millions of dollars, Republicans still have no new information to support their allegations.    Some people may be wondering, if these new emails do not advance the investigation in any way, then what are they? What are they? Let me give you a few examples which the Inspector General provided to us this week. I didn't do this; the Inspector General gave them to us.    On December 25, 2012, Christmas Day, Ms. Lerner received an email from eBay with an advertisement for holiday shopping deals. In another newly discovered email sent a few days earlier, on December 22, Ms. Lerner received an offer from the Web site flowershopping.com for some very nice bouquets. Not quite the smoking gun the Republicans alleged.    The fact is that Ms. Lerner's computer crashed--and we need to keep this in mind--the fact is that Ms. Lerner's computer crashed before she was informed that IRS employees in Cincinnati were using inappropriate criteria to screen tax-exempt applicants. This is not my finding. It is not mine. That is the finding of Mr. George, our Inspector General, in his original report from May 2013, more than 2 years ago.    Today, this hearing is our 22nd on this issue--22. And I cannot imagine what possible reason there might be to have a 23rd. So I hope we will finally be able to move forward and focus on bipartisan investigations that will help the American families in their daily lives.    And to the IRS employees: I hope that all these efforts do not have a chilling effect on you doing the job that the American people have paid you to do and expect you to do and the job that you want to do.    And, with that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>George</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. George. I have a very brief opening statement, Mr. Chairman, and then I'm going to defer to Mr. Camus to provide more substance to the facts.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t xml:space="preserve">    Mr. George. Thank you, Chairman Chaffetz, Ranking Member Cummings, members of the committee. At your request, we are here again to update you on the progress of our efforts to recover former IRS Exempt Organization Unit Director Lois Lerner's missing emails.    With me again is Tim Camus, TIGTA's Deputy Inspector General for Investigations. Tim has led this investigation, which was initiated on June 16, 2014. This was shortly after the IRS reported gaps in a production of Lois Lerner's emails, citing as the reason a crash of her computer's hard drive.    One week later, as was noted, then-Chairman Wyden and then-Ranking Member Hatch of the Senate Finance Committee requested that TIGTA investigate the matter, including us to, ``perform our own analysis of whether any data can be salvaged and produced.''    This morning's testimony will provide you with information about the extent of our investigative efforts as well as the evidence we have gathered to date.    At the outset, it is important to note that, even as we believe we have reached certain conclusions and determinations in our findings, this investigation is not yet concluded. Should anything of note be discovered, we will review it for its impact on the investigation, produce a supplemental report, and provide the new information, including emails, to all appropriate parties.    Overall, this investigation included interviewing over 118 witnesses, extensive document reviews, and the processing and analysis of over 20 terabytes of data. As a result of these efforts, we have determined the following:    TIGTA was successful in recovering over 1,000 emails that the IRS did not produce to Congress, the Department of Justice, or TIGTA's Office of Investigations. We have also determined that, prior to our investigation and our efforts to recover Ms. Lerner's missing emails, the IRS did not search for, review, or examine the backup tapes, server hard drives, or sources that ultimately produced new previously undisclosed emails.    Four hundred and twenty-two tapes that likely contained Ms. Lerner's emails from the years 2010 and 2011 were erased and most likely will never be recovered. These 422 tapes were magnetically erased around March 4, 2014. As was pointed out, this was 1 month after the IRS realized they were missing emails from Lois Lerner and about 8 months after this committee requested all documents and communications sent by, received by, or copied to Lois Lerner.    As was noted, our investigation did not uncover any evidence that the erasure of these 422 backup tapes was done to conceal information from Congress or law enforcement.    In addition, it is important to note that it is remotely possible that our continuing review of data from the initial set of 735 backup tapes could result in discovery of additional emails not previously provided to Congress by the IRS.    I will now turn to Mr. Camus, who will provide a detailed discussion on the findings of our investigation and the search for the missing emails.</t>
   </si>
   <si>
-    <t>Camus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Camus. Thank you, Chairman Chaffetz, Ranking Member Cummings, and members of the full committee. I appreciate the opportunity to come here today to provide updated testimony on my agency's investigation of the Internal Revenue Service's production of the emails of the former Director of Exempt Organizations as well as our efforts thus far in recovering missing emails.    Throughout our investigation, we have updated the tax-writing and oversight committees of Congress, including this committee, concerning our progress in recovering emails. As the Inspector General noted, we are now in position to provide information about our investigation.    My special agents determined that there were six possible sources of information in order to recover missing emails. Those sources are Ms. Lerner's crashed hard drive, the backup or disaster recovery tapes, a decommissioned IRS email server, the backup tapes for the decommissioned email server, Ms. Lerner's BlackBerry, and loaner computers that may have been assigned to her while her laptop was being repaired. My testimony will provide an overview of some of those sources, all of which are covered in the written testimony.    With respect to Ms. Lerner's crashed computer hard drive, we determined that, on Saturday, June 11, 2011, between 5 p.m. And 7 p.m., Ms. Lerner's IRS laptop was more than likely in her office and it stopped communicating with the IRS server system.    The following Monday, June 13, 2011, Ms. Lerner reported that she found her computer inoperable, and the malfunction was reported to the IRS information technology staff. The assigned IT specialist determined the hard drive had crashed and, following standard protocol, placed a new hard drive in Ms. Lerner's laptop.    A Hewlett-Packard technician also worked on the laptop for other repairs. When interviewed, both technicians reported they did not note visible damage to the laptop computer itself. Because we were unable to locate and examine the hard drive, we do not definitively know why it crashed.    On July 19, 2011, Ms. Lerner requested IRS IT to attempt to recover data from her crashed hard drive to retrieve, ``personal information. After receiving the hard drive from the IRS technician, an IRS criminal investigation technician was unsuccessful in recovering data. IRS IT management determined additional efforts to recover data from Ms. Lerner's hard drive were not worth the expense.    It is important to point out the IRS does not track individual hard drives by their serial numbers. Our investigation revealed that Ms. Lerner's hard drive was more than likely sent for destruction with a shipment of other IRS electronic media on April 13 of 2012. The shipment was traced to the UNICOR Recycling Facility in Marianna, Florida. We determined that this shipment of hard drives was destroyed using a shredder that cut the inserted hard drives into quarter-size pieces. According to the facility manager, those pieces are then sold for scrap.    Understanding the limitation on the investigation without having the hard drive, our investigation did not uncover any evidence of sabotage of Ms. Lerner's hard drive. Our investigation included attempts to determine if anybody entered Ms. Lerner's office prior to the date and time of her hard drive crash. Unfortunately, those logs were erased after 1 year of retention.    I will now provide an overview of our investigative efforts relating to the backup or disaster recovery tapes.    On June 30, 2014, TIGTA demanded the IRS provide all backup tapes used for Ms. Lerner's IRS email account, specifically during the period January 1, 2008, through December 31, 2011. On July 1, 2014, the IRS identified 744 backup tapes, and TIGTA took possession of all of them. Initially, it appeared as though nine tapes may have contained valuable data, but they turned out to be blank.    The IRS executive in charge of the IRS email backup program and his staff identified the 13 specific backup tapes that would contain the earliest copies of Lois Lerner's email. When we took those tapes to the recognized industry expert for electronic data recovery and extraction, they then provided TIGTA with Exchange database files from these tapes.    At the conclusion of the process, TIGTA identified 79,840 Lois Lerner emails, of which nearly 60 percent were, in fact, duplicates or copies of each other, leaving approximately 32,700 Lois Lerner emails.    As was pointed out in our February testimony, TIGTA compared those 32,700 emails to what the IRS has already produced to Congress in an effort to identify unique emails that had not been produced to the Congress. Due to technological challenges, TIGTA agents had to create a specialized program script that initially identified as many as 6,400 emails that appeared to have not been previously provided to Congress.    It is important to point out, at each stage when we identified emails, we informed the recipients of that information that it was early in the investigation and additional technical work needed to be done.    To further refine the population, we then manually compared the 6,400 emails that were previously produced to the emails that were previously produced by the Congress--to the Congress by the IRS. We removed the obvious spam emails and additional duplicates that we found during the manual process.    At the conclusion of this review, we determined that over 1,000 emails that were recovered by TIGTA from backup tapes were not previously provided to Congress. Using the analysis of email transaction logs, we estimate that there may still be 23,000 to 24,000 emails missing.    Another potential source of emails that I will highlight is the decommissioned New Carrollton email server. Based on our review of this source, our agents identified 58 new emails not previously produced to Congress.    The final source that I will discuss is the backup tapes for the decommissioned email server. As the IG stated, during our investigation, we obtained the 424 backup tapes associated with the decommissioned New Carrollton email server, and it is important to note that that server was in operation until approximately May 2011.    We determined that 422 of the 424 tapes were degaussed or magnetically erased and, therefore, had no data on them. This was done by--the erasure was done by IRS employees in Martinsburg, West Virginia, on or about March 4, 2014, 1 month after the IRS realized it was missing emails.    One of the 424 tapes contained backup files created in 2011, but they did not pertain to Lois Lerner. Due to encryption or damage to the other tape, we were unable to read it.    Our investigation found no evidence to prove that the erasure of the 422 tapes was done in furtherance of an effort to purposely destroy evidence or to conceal information from Congress and law enforcement.    Sworn testimony and reviews of the involved IRS employees' emails indicate that the employees did not know about, understand, or follow the Chief Technology Officer's May 2013 email directive to halt the destruction of electronic media due to ongoing investigations.    Our investigation also revealed that the IRS did not put forth an effort to locate and preserve the backup tapes.    Lastly, there is a remote possibility, as the IG pointed out, that further review of the information obtained from the initial set of 735 backup tapes could result in the recovery of additional emails that were not previously produced. We are also following up on a discrepancy in the count of hard drives that we hope to have resolved prior to finalizing our report of investigation.    Chairman Chaffetz, Ranking Member Cummings, and members of the committee, thank you for the opportunity to discuss this matter, and I look forward to answering your questions.    [prepared joint statement of Mr. George and Mr. Camus follows:]</t>
   </si>
   <si>
@@ -373,9 +361,6 @@
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Would the ranking member yield one more time?</t>
   </si>
   <si>
@@ -391,9 +376,6 @@
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. Thank you, Mr. Chairman.    I want to walk through the timeline here real quick.    On May 10, 2013, Lois Lerner, unprecedented, goes to a bar association meeting here in town 3 days before you are going to issue your report.</t>
   </si>
   <si>
@@ -478,9 +460,6 @@
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    I now recognize the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman.    Mr. George, I want to ask you about your ever-changing estimates of the new emails that you recovered from Mrs. Lerner. Your numbers started at 80,000 emails in February. Then it dropped to 32,000 emails at the end of February. Then, last week, it fell to 6,400. And, 9 days later, now, it has sunk to about 1,000. Your new number today is 98 percent lower than the first number you gave us.    You know, this is a room where we like to hear the truth. There was a great Justice of the Supreme Court of the United States, Oliver Wendell Holmes, and he talked about the truth. He said, ``The truth is tough. It's not like a bubble that you can prick and it will explode. It's more like a rugged football that you can kick around all day and it doesn't lose its shape and it doesn't lose its form and it stays the same.'' The truth doesn't change.    And when you are talking about a story that's true, Mr. George, it's the same the first time you tell it, the second time you tell it, the third time you tell it, and the fourth time you tell it. The truth doesn't go 80,000 and then 32,000 and then 6,400 and now 1,000. In fact, in the last 9 days, you dropped from 6,400 discovered emails to 1,000.    And I am looking at the letter dated June 16 from your office. This is not from you; this is from Gladys Hernandez, your chief counsel. Is she your chief counselor, Mr. George?</t>
   </si>
   <si>
@@ -526,9 +505,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman.    And thanks for the panelists for the work that you've done. It's been intimidated; it has been held up; it has been frustrated all across the many, many months we've been dealing with it.    I would also start with a quote from a famous Chief Justice of the Supreme Court as well as one of the most famous trial lawyers and former Members of Congress, Daniel Webster, and Justice Marshall, who both said, ``The power to tax is the power to destroy.'' I'm not sure they were talking about degaussing, but they were certainly talking about the power of a taxing entity to impact the lives of people. And that's something we've had here.    I also want to remind our whole committee again, as we talk about numbers and we talk about degaussing, and we talk about tapes and we talk about hard drives, remember, the fact of the matter is that Lois Lerner sat at that very table and pled the Fifth. And what does the Fifth Amendment refer to? The right to not self-incriminate. That says to me, Lois Lerner was worried about the fact that what she had done could be construed as illegal at the very least, and she chose not to share the truth with us. She didn't kick the football; she walked off the field. And so we're left with trying to deal with tapes that have been degaussed--oh, sorry. I understand it. My people understand it--they've been destroyed.    When Congress began its investigation on May 2013, the IRS issued a preservation notice to ensure the documents relevant to the investigation were not destroyed. Is that not correct?</t>
   </si>
   <si>
@@ -724,9 +700,6 @@
     <t>412477</t>
   </si>
   <si>
-    <t>Scott DesJarlais</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DesJarlais. Thank you, Mr. Chairman.    I thank the gentleman for being here again today.    Mr. George, how long has this investigation been ongoing?</t>
   </si>
   <si>
@@ -823,9 +796,6 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Chairman.    Mr. George, I want to start by encouraging you to take heart when the other side makes ad hominem attacks. It's generally because they have neither the facts nor the law nor, frankly, logic. So I know it is difficult for you to sit there and absorb ad hominem attacks, but the reality is that is kind of the last vestige of folks who have nothing else left to argue.    I'm going to ask a series of questions, and Mr. Camus, or Mr. George, either one can answer them. And I'm a simple man, so I'm going to start kind of simply. With respect to the IRS investigation/targeting investigations, were there at some point subpoenas in place?</t>
   </si>
   <si>
@@ -937,9 +907,6 @@
     <t>412503</t>
   </si>
   <si>
-    <t>Thomas Massie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chairman.    I want to ask about the date that Lois Lerner's hard drive failed, because he gave us more specificity here today, and I appreciate that. Is it--what day did her hard drive fail?</t>
   </si>
   <si>
@@ -1030,9 +997,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. I thank the chairman.    I tell you, my friend from Kentucky, it may be incompetence, or it may just be a willful disregard of the preservation order and a willful disregard of the subpoena that this committee issued in August of 2013. And so those are two very, very important actions.    And yet, Mr. Camus, in early 2014, your report demonstrates 422 backup tapes were destroyed by the IRS, correct?</t>
   </si>
   <si>
@@ -1063,9 +1027,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    Mr. George, much has been made about the number of emails that have been recovered. I would agree with some of the members who have emphatically asserted that numbers matter. My question to you is, how many emails that contain evidence of wrongdoing do you need to recover in order to pursue justice? Is it 10,000? Is it 1,000? One hundred? Would one be enough?</t>
   </si>
   <si>
@@ -1102,9 +1063,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    All right. The directive goes out to stop destroying the tapes, or erasing the tapes in May of 2013. Yet, we know that they are still being erased in 2014. And yet, what I'm trying to wrap my mind around is the fact that you've said you found no reason to believe that there was any intentional criminal or obstructive behavior.    So why in the world were the orders from May of 2013 not followed?</t>
   </si>
   <si>
@@ -1195,9 +1153,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman. Appreciate your patience in coming from a markup.    This is a huge issue, not just because it's called on in the press, but this issue comes down to integrity as well as credibility. I appreciate what's been shared of what I've heard so far today.    A couple things that I'd like to address. And just to make sure that I'm clear, in your investigation, did we examine the circumstances under which the IRS informed Congress about the missing emails? Could you take a minute and address that?</t>
   </si>
   <si>
@@ -1273,9 +1228,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman.    We've established from your investigations that tapes were not sent to the labs; laptops were not examined; BlackBerrys were not examined. In June of 2014, the IRS in testimony in letters stated that it left, ``no stone unturned,'' to recover the emails. Was that true?</t>
   </si>
   <si>
@@ -1393,9 +1345,6 @@
     <t>412661</t>
   </si>
   <si>
-    <t>Glenn Grothman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grothman. Thanks much.    I guess this question's for either one of you. You know, the Department of Justice announced they've been conducting their own investigation. Are you still participating with the DOJ's investigation of the targeting of conservative nonprofit groups?</t>
   </si>
   <si>
@@ -1454,9 +1403,6 @@
   </si>
   <si>
     <t>412552</t>
-  </si>
-  <si>
-    <t>Mark Meadows</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. And thank you for putting a priority on informing the American people by holding this hearing.    Mr. George, on a personal note, the passion and compassion that you showed about caring for a loved one is not missed in the unbelievable difficulty of this hearing, and I just want to say, you know, if we could all have sons who are willing to do that kind of service to a family member, this world would be a better place. So I just want to say thank you. Thank you for your service.</t>
@@ -2122,11 +2068,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2146,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2174,11 +2116,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2200,11 +2140,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2224,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2252,11 +2188,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2276,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2302,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2330,11 +2260,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2354,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2382,11 +2308,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2406,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2434,11 +2356,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2458,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2486,11 +2404,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2510,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2538,11 +2452,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2562,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2590,11 +2500,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2614,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2642,11 +2548,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2666,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2694,11 +2596,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2718,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2746,11 +2644,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2770,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2798,11 +2692,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2822,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2850,11 +2740,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2874,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2902,11 +2788,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2926,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2954,11 +2836,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2978,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3006,11 +2884,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3030,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3058,11 +2932,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3082,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3110,11 +2980,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3134,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3162,11 +3028,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3186,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3214,11 +3076,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3238,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3266,11 +3124,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3290,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3318,11 +3172,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3342,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3368,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3394,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3420,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3446,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3472,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3498,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3524,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3550,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3576,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3602,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3628,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3654,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3680,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3706,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3732,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3758,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3784,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3810,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3836,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3862,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3888,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3914,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3940,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3966,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3992,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4018,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4044,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4070,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4096,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4122,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4148,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4174,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4200,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4226,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4252,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4278,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4304,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4330,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4356,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4382,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4410,11 +4180,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4434,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4462,11 +4228,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4486,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4514,11 +4276,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4538,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4564,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4590,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4618,11 +4372,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4642,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4670,11 +4420,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4694,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4722,11 +4468,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4746,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4772,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4800,11 +4540,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4824,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4852,11 +4588,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4876,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>124</v>
-      </c>
-      <c r="G108" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4902,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4928,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4954,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4980,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>124</v>
-      </c>
-      <c r="G112" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5006,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5032,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
+        <v>119</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>124</v>
-      </c>
-      <c r="G114" t="s">
-        <v>125</v>
-      </c>
-      <c r="H114" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5058,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5084,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>124</v>
-      </c>
-      <c r="G116" t="s">
+        <v>119</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>125</v>
-      </c>
-      <c r="H116" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5110,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5136,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>124</v>
-      </c>
-      <c r="G118" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5162,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5188,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>124</v>
-      </c>
-      <c r="G120" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5214,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5240,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>124</v>
-      </c>
-      <c r="G122" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5266,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5292,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>124</v>
-      </c>
-      <c r="G124" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5318,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5344,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>124</v>
-      </c>
-      <c r="G126" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5370,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5396,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>124</v>
-      </c>
-      <c r="G128" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5422,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5448,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>124</v>
-      </c>
-      <c r="G130" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5474,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5500,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>124</v>
-      </c>
-      <c r="G132" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5526,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5552,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>124</v>
-      </c>
-      <c r="G134" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5578,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5604,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>124</v>
-      </c>
-      <c r="G136" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5630,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5656,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>124</v>
-      </c>
-      <c r="G138" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5684,11 +5356,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5708,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5734,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5760,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5788,11 +5452,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5812,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5838,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5864,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
         <v>154</v>
-      </c>
-      <c r="H146" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5890,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5916,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5942,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5968,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5994,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6020,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6048,11 +5692,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6072,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>169</v>
-      </c>
-      <c r="G154" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6098,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6124,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>169</v>
-      </c>
-      <c r="G156" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6150,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6176,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>169</v>
-      </c>
-      <c r="G158" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6202,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6228,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
+        <v>162</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
         <v>169</v>
-      </c>
-      <c r="G160" t="s">
-        <v>170</v>
-      </c>
-      <c r="H160" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6254,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6280,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>169</v>
-      </c>
-      <c r="G162" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6306,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6332,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>169</v>
-      </c>
-      <c r="G164" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6358,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6384,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>169</v>
-      </c>
-      <c r="G166" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6410,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6436,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>169</v>
-      </c>
-      <c r="G168" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6462,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6488,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>169</v>
-      </c>
-      <c r="G170" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6514,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6540,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>169</v>
-      </c>
-      <c r="G172" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6566,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6592,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>169</v>
-      </c>
-      <c r="G174" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6618,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6644,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>169</v>
-      </c>
-      <c r="G176" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6670,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6696,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>169</v>
-      </c>
-      <c r="G178" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6724,11 +6316,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6748,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>118</v>
-      </c>
-      <c r="G180" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6774,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>169</v>
-      </c>
-      <c r="G181" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6800,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>118</v>
-      </c>
-      <c r="G182" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6826,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>169</v>
-      </c>
-      <c r="G183" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6852,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>118</v>
-      </c>
-      <c r="G184" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6878,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6904,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>118</v>
-      </c>
-      <c r="G186" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6930,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6956,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>118</v>
-      </c>
-      <c r="G188" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6982,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7008,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7034,13 +6602,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>118</v>
-      </c>
-      <c r="G191" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7060,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7086,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>118</v>
-      </c>
-      <c r="G193" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7112,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7138,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>118</v>
-      </c>
-      <c r="G195" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7164,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7190,13 +6746,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>118</v>
-      </c>
-      <c r="G197" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7216,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7242,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>118</v>
-      </c>
-      <c r="G199" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7268,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7294,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>118</v>
-      </c>
-      <c r="G201" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7320,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7346,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>118</v>
-      </c>
-      <c r="G203" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7372,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7398,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>118</v>
-      </c>
-      <c r="G205" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7424,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7450,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>118</v>
-      </c>
-      <c r="G207" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7476,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7502,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>118</v>
-      </c>
-      <c r="G209" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7528,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7554,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>118</v>
-      </c>
-      <c r="G211" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7580,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7606,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>118</v>
-      </c>
-      <c r="G213" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7634,11 +7156,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7658,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>14</v>
-      </c>
-      <c r="G215" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7686,11 +7204,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7710,13 +7226,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>14</v>
-      </c>
-      <c r="G217" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7736,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>19</v>
-      </c>
-      <c r="G218" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7764,11 +7276,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7788,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>235</v>
-      </c>
-      <c r="G220" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7814,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>19</v>
-      </c>
-      <c r="G221" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7840,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>235</v>
-      </c>
-      <c r="G222" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7866,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
-      </c>
-      <c r="G223" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7892,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>235</v>
-      </c>
-      <c r="G224" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7918,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>19</v>
-      </c>
-      <c r="G225" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7944,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>235</v>
-      </c>
-      <c r="G226" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7970,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>19</v>
-      </c>
-      <c r="G227" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7996,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>235</v>
-      </c>
-      <c r="G228" t="s">
+        <v>227</v>
+      </c>
+      <c r="G228" t="s"/>
+      <c r="H228" t="s">
         <v>236</v>
-      </c>
-      <c r="H228" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8022,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8048,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>235</v>
-      </c>
-      <c r="G230" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8074,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>19</v>
-      </c>
-      <c r="G231" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8100,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>235</v>
-      </c>
-      <c r="G232" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8126,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>19</v>
-      </c>
-      <c r="G233" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8152,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>235</v>
-      </c>
-      <c r="G234" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8178,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>19</v>
-      </c>
-      <c r="G235" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8204,13 +7682,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>235</v>
-      </c>
-      <c r="G236" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8230,13 +7706,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8256,13 +7730,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>235</v>
-      </c>
-      <c r="G238" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8282,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8308,13 +7778,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>235</v>
-      </c>
-      <c r="G240" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8334,13 +7802,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8360,13 +7826,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>235</v>
-      </c>
-      <c r="G242" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8388,11 +7852,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8412,13 +7874,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>19</v>
-      </c>
-      <c r="G244" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8440,11 +7900,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8466,11 +7924,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8490,13 +7946,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>19</v>
-      </c>
-      <c r="G247" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8518,11 +7972,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8542,13 +7994,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>19</v>
-      </c>
-      <c r="G249" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8570,11 +8020,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8594,13 +8042,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>268</v>
-      </c>
-      <c r="G251" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8620,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>19</v>
-      </c>
-      <c r="G252" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8646,13 +8090,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>268</v>
-      </c>
-      <c r="G253" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8672,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>19</v>
-      </c>
-      <c r="G254" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8698,13 +8138,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>268</v>
-      </c>
-      <c r="G255" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8724,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>19</v>
-      </c>
-      <c r="G256" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8750,13 +8186,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>268</v>
-      </c>
-      <c r="G257" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8776,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>19</v>
-      </c>
-      <c r="G258" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8802,13 +8234,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
+        <v>259</v>
+      </c>
+      <c r="G259" t="s"/>
+      <c r="H259" t="s">
         <v>268</v>
-      </c>
-      <c r="G259" t="s">
-        <v>269</v>
-      </c>
-      <c r="H259" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8828,13 +8258,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>19</v>
-      </c>
-      <c r="G260" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8854,13 +8282,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>19</v>
-      </c>
-      <c r="G261" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8880,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>268</v>
-      </c>
-      <c r="G262" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8906,13 +8330,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>19</v>
-      </c>
-      <c r="G263" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8932,13 +8354,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>268</v>
-      </c>
-      <c r="G264" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8958,13 +8378,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>19</v>
-      </c>
-      <c r="G265" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8984,13 +8402,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>268</v>
-      </c>
-      <c r="G266" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9010,13 +8426,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>19</v>
-      </c>
-      <c r="G267" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9036,13 +8450,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>268</v>
-      </c>
-      <c r="G268" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9062,13 +8474,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>19</v>
-      </c>
-      <c r="G269" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9088,13 +8498,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>268</v>
-      </c>
-      <c r="G270" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9114,13 +8522,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>19</v>
-      </c>
-      <c r="G271" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9140,13 +8546,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>268</v>
-      </c>
-      <c r="G272" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9166,13 +8570,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>19</v>
-      </c>
-      <c r="G273" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9192,13 +8594,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>268</v>
-      </c>
-      <c r="G274" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9218,13 +8618,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>19</v>
-      </c>
-      <c r="G275" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9244,13 +8642,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>268</v>
-      </c>
-      <c r="G276" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9270,13 +8666,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>19</v>
-      </c>
-      <c r="G277" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9296,13 +8690,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>268</v>
-      </c>
-      <c r="G278" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9322,13 +8714,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>19</v>
-      </c>
-      <c r="G279" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9348,13 +8738,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>268</v>
-      </c>
-      <c r="G280" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9374,13 +8762,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>19</v>
-      </c>
-      <c r="G281" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9400,13 +8786,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>268</v>
-      </c>
-      <c r="G282" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9426,13 +8810,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>19</v>
-      </c>
-      <c r="G283" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9452,13 +8834,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>268</v>
-      </c>
-      <c r="G284" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9478,13 +8858,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>19</v>
-      </c>
-      <c r="G285" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9504,13 +8882,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>268</v>
-      </c>
-      <c r="G286" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9530,13 +8906,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>19</v>
-      </c>
-      <c r="G287" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9556,13 +8930,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>268</v>
-      </c>
-      <c r="G288" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9582,13 +8954,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>19</v>
-      </c>
-      <c r="G289" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9608,13 +8978,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>268</v>
-      </c>
-      <c r="G290" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9634,13 +9002,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>19</v>
-      </c>
-      <c r="G291" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9660,13 +9026,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>268</v>
-      </c>
-      <c r="G292" t="s">
-        <v>269</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9688,11 +9052,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9712,13 +9074,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>306</v>
-      </c>
-      <c r="G294" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9738,13 +9098,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>19</v>
-      </c>
-      <c r="G295" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9764,13 +9122,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>306</v>
-      </c>
-      <c r="G296" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9790,13 +9146,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>19</v>
-      </c>
-      <c r="G297" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9816,13 +9170,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>306</v>
-      </c>
-      <c r="G298" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9842,13 +9194,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>19</v>
-      </c>
-      <c r="G299" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9868,13 +9218,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>306</v>
-      </c>
-      <c r="G300" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9894,13 +9242,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>19</v>
-      </c>
-      <c r="G301" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9920,13 +9266,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>306</v>
-      </c>
-      <c r="G302" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9946,13 +9290,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>19</v>
-      </c>
-      <c r="G303" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9972,13 +9314,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>306</v>
-      </c>
-      <c r="G304" t="s">
+        <v>296</v>
+      </c>
+      <c r="G304" t="s"/>
+      <c r="H304" t="s">
         <v>307</v>
-      </c>
-      <c r="H304" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9998,13 +9338,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>19</v>
-      </c>
-      <c r="G305" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10024,13 +9362,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>306</v>
-      </c>
-      <c r="G306" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10050,13 +9386,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>19</v>
-      </c>
-      <c r="G307" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10076,13 +9410,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>306</v>
-      </c>
-      <c r="G308" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10102,13 +9434,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>19</v>
-      </c>
-      <c r="G309" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10128,13 +9458,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>306</v>
-      </c>
-      <c r="G310" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10154,13 +9482,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>19</v>
-      </c>
-      <c r="G311" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10180,13 +9506,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>306</v>
-      </c>
-      <c r="G312" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10206,13 +9530,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>19</v>
-      </c>
-      <c r="G313" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10232,13 +9554,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>306</v>
-      </c>
-      <c r="G314" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10258,13 +9578,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>19</v>
-      </c>
-      <c r="G315" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10284,13 +9602,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>306</v>
-      </c>
-      <c r="G316" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10310,13 +9626,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>19</v>
-      </c>
-      <c r="G317" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10336,13 +9650,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>306</v>
-      </c>
-      <c r="G318" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10362,13 +9674,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>19</v>
-      </c>
-      <c r="G319" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10388,13 +9698,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>306</v>
-      </c>
-      <c r="G320" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10414,13 +9722,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>19</v>
-      </c>
-      <c r="G321" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10440,13 +9746,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>306</v>
-      </c>
-      <c r="G322" t="s">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10468,11 +9772,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10492,13 +9794,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>337</v>
-      </c>
-      <c r="G324" t="s">
-        <v>338</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10518,13 +9818,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>19</v>
-      </c>
-      <c r="G325" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10544,13 +9842,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>337</v>
-      </c>
-      <c r="G326" t="s">
-        <v>338</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10570,13 +9866,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>19</v>
-      </c>
-      <c r="G327" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10596,13 +9890,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>337</v>
-      </c>
-      <c r="G328" t="s">
-        <v>338</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10622,13 +9914,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>19</v>
-      </c>
-      <c r="G329" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10648,13 +9938,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>337</v>
-      </c>
-      <c r="G330" t="s">
-        <v>338</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10674,13 +9962,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>19</v>
-      </c>
-      <c r="G331" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10700,13 +9986,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>337</v>
-      </c>
-      <c r="G332" t="s">
-        <v>338</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10726,13 +10010,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>19</v>
-      </c>
-      <c r="G333" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10752,13 +10034,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>337</v>
-      </c>
-      <c r="G334" t="s">
-        <v>338</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10780,11 +10060,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10804,13 +10082,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>348</v>
-      </c>
-      <c r="G336" t="s">
-        <v>349</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10830,13 +10106,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>19</v>
-      </c>
-      <c r="G337" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10856,13 +10130,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>348</v>
-      </c>
-      <c r="G338" t="s">
-        <v>349</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10882,13 +10154,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>19</v>
-      </c>
-      <c r="G339" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10908,13 +10178,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>348</v>
-      </c>
-      <c r="G340" t="s">
-        <v>349</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10934,13 +10202,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>19</v>
-      </c>
-      <c r="G341" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10960,13 +10226,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>348</v>
-      </c>
-      <c r="G342" t="s">
-        <v>349</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10986,13 +10250,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>19</v>
-      </c>
-      <c r="G343" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11012,13 +10274,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>348</v>
-      </c>
-      <c r="G344" t="s">
-        <v>349</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11038,13 +10298,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>19</v>
-      </c>
-      <c r="G345" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11064,13 +10322,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>348</v>
-      </c>
-      <c r="G346" t="s">
-        <v>349</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11092,11 +10348,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>12</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11116,13 +10370,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>361</v>
-      </c>
-      <c r="G348" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11142,13 +10394,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>19</v>
-      </c>
-      <c r="G349" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11168,13 +10418,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>361</v>
-      </c>
-      <c r="G350" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11194,13 +10442,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>19</v>
-      </c>
-      <c r="G351" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11220,13 +10466,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>361</v>
-      </c>
-      <c r="G352" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11246,13 +10490,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>19</v>
-      </c>
-      <c r="G353" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11272,13 +10514,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>361</v>
-      </c>
-      <c r="G354" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11298,13 +10538,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>19</v>
-      </c>
-      <c r="G355" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11324,13 +10562,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>361</v>
-      </c>
-      <c r="G356" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11350,13 +10586,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>19</v>
-      </c>
-      <c r="G357" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11376,13 +10610,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>361</v>
-      </c>
-      <c r="G358" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11402,13 +10634,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>19</v>
-      </c>
-      <c r="G359" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11428,13 +10658,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>361</v>
-      </c>
-      <c r="G360" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11454,13 +10682,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>19</v>
-      </c>
-      <c r="G361" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11480,13 +10706,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>361</v>
-      </c>
-      <c r="G362" t="s">
+        <v>348</v>
+      </c>
+      <c r="G362" t="s"/>
+      <c r="H362" t="s">
         <v>362</v>
-      </c>
-      <c r="H362" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11506,13 +10730,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>19</v>
-      </c>
-      <c r="G363" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11532,13 +10754,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>361</v>
-      </c>
-      <c r="G364" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11558,13 +10778,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>19</v>
-      </c>
-      <c r="G365" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11584,13 +10802,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>361</v>
-      </c>
-      <c r="G366" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11610,13 +10826,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>19</v>
-      </c>
-      <c r="G367" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11636,13 +10850,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>361</v>
-      </c>
-      <c r="G368" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11662,13 +10874,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>19</v>
-      </c>
-      <c r="G369" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11688,13 +10898,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>361</v>
-      </c>
-      <c r="G370" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11714,13 +10922,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>19</v>
-      </c>
-      <c r="G371" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11740,13 +10946,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>361</v>
-      </c>
-      <c r="G372" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11766,13 +10970,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>19</v>
-      </c>
-      <c r="G373" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11792,13 +10994,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>361</v>
-      </c>
-      <c r="G374" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11818,13 +11018,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>19</v>
-      </c>
-      <c r="G375" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11844,13 +11042,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>361</v>
-      </c>
-      <c r="G376" t="s">
-        <v>362</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11872,11 +11068,9 @@
       <c r="F377" t="s">
         <v>11</v>
       </c>
-      <c r="G377" t="s">
-        <v>12</v>
-      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11896,13 +11090,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>392</v>
-      </c>
-      <c r="G378" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11922,13 +11114,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>19</v>
-      </c>
-      <c r="G379" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11948,13 +11138,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>392</v>
-      </c>
-      <c r="G380" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11974,13 +11162,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>19</v>
-      </c>
-      <c r="G381" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12000,13 +11186,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>392</v>
-      </c>
-      <c r="G382" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12026,13 +11210,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>19</v>
-      </c>
-      <c r="G383" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12052,13 +11234,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>392</v>
-      </c>
-      <c r="G384" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12078,13 +11258,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>19</v>
-      </c>
-      <c r="G385" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12104,13 +11282,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>392</v>
-      </c>
-      <c r="G386" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12130,13 +11306,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>19</v>
-      </c>
-      <c r="G387" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12156,13 +11330,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>392</v>
-      </c>
-      <c r="G388" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12182,13 +11354,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>19</v>
-      </c>
-      <c r="G389" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12208,13 +11378,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>392</v>
-      </c>
-      <c r="G390" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12234,13 +11402,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>19</v>
-      </c>
-      <c r="G391" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12260,13 +11426,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>392</v>
-      </c>
-      <c r="G392" t="s">
+        <v>378</v>
+      </c>
+      <c r="G392" t="s"/>
+      <c r="H392" t="s">
         <v>393</v>
-      </c>
-      <c r="H392" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12286,13 +11450,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>19</v>
-      </c>
-      <c r="G393" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12312,13 +11474,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>392</v>
-      </c>
-      <c r="G394" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12338,13 +11498,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>19</v>
-      </c>
-      <c r="G395" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12364,13 +11522,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>392</v>
-      </c>
-      <c r="G396" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12390,13 +11546,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>19</v>
-      </c>
-      <c r="G397" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12416,13 +11570,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>392</v>
-      </c>
-      <c r="G398" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12442,13 +11594,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>19</v>
-      </c>
-      <c r="G399" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12468,13 +11618,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>19</v>
-      </c>
-      <c r="G400" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12494,13 +11642,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>392</v>
-      </c>
-      <c r="G401" t="s">
-        <v>393</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12522,11 +11668,9 @@
       <c r="F402" t="s">
         <v>11</v>
       </c>
-      <c r="G402" t="s">
-        <v>12</v>
-      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12546,13 +11690,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>418</v>
-      </c>
-      <c r="G403" t="s">
-        <v>419</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12572,13 +11714,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>19</v>
-      </c>
-      <c r="G404" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12598,13 +11738,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>418</v>
-      </c>
-      <c r="G405" t="s">
-        <v>419</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12624,13 +11762,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>19</v>
-      </c>
-      <c r="G406" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12650,13 +11786,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>418</v>
-      </c>
-      <c r="G407" t="s">
-        <v>419</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12676,13 +11810,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>19</v>
-      </c>
-      <c r="G408" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12702,13 +11834,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>418</v>
-      </c>
-      <c r="G409" t="s">
-        <v>419</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12728,13 +11858,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>19</v>
-      </c>
-      <c r="G410" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12754,13 +11882,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>418</v>
-      </c>
-      <c r="G411" t="s">
-        <v>419</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12780,13 +11906,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>19</v>
-      </c>
-      <c r="G412" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12806,13 +11930,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>418</v>
-      </c>
-      <c r="G413" t="s">
-        <v>419</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12832,13 +11954,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>14</v>
-      </c>
-      <c r="G414" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12858,13 +11978,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>418</v>
-      </c>
-      <c r="G415" t="s">
-        <v>419</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12884,13 +12002,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>14</v>
-      </c>
-      <c r="G416" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12910,13 +12026,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>19</v>
-      </c>
-      <c r="G417" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12936,13 +12050,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>14</v>
-      </c>
-      <c r="G418" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12962,13 +12074,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>19</v>
-      </c>
-      <c r="G419" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12988,13 +12098,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>14</v>
-      </c>
-      <c r="G420" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13014,13 +12122,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>19</v>
-      </c>
-      <c r="G421" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13040,13 +12146,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>14</v>
-      </c>
-      <c r="G422" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13068,11 +12172,9 @@
       <c r="F423" t="s">
         <v>11</v>
       </c>
-      <c r="G423" t="s">
-        <v>12</v>
-      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13092,13 +12194,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>19</v>
-      </c>
-      <c r="G424" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13120,11 +12220,9 @@
       <c r="F425" t="s">
         <v>11</v>
       </c>
-      <c r="G425" t="s">
-        <v>12</v>
-      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13144,13 +12242,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>19</v>
-      </c>
-      <c r="G426" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13172,11 +12268,9 @@
       <c r="F427" t="s">
         <v>11</v>
       </c>
-      <c r="G427" t="s">
-        <v>12</v>
-      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13196,13 +12290,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>19</v>
-      </c>
-      <c r="G428" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13224,11 +12316,9 @@
       <c r="F429" t="s">
         <v>11</v>
       </c>
-      <c r="G429" t="s">
-        <v>12</v>
-      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13248,13 +12338,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>19</v>
-      </c>
-      <c r="G430" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13276,11 +12364,9 @@
       <c r="F431" t="s">
         <v>11</v>
       </c>
-      <c r="G431" t="s">
-        <v>12</v>
-      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13300,13 +12386,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>14</v>
-      </c>
-      <c r="G432" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13328,11 +12412,9 @@
       <c r="F433" t="s">
         <v>11</v>
       </c>
-      <c r="G433" t="s">
-        <v>12</v>
-      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13352,13 +12434,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>14</v>
-      </c>
-      <c r="G434" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13378,13 +12458,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>19</v>
-      </c>
-      <c r="G435" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13404,13 +12482,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>14</v>
-      </c>
-      <c r="G436" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13430,13 +12506,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>19</v>
-      </c>
-      <c r="G437" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13456,13 +12530,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>14</v>
-      </c>
-      <c r="G438" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13484,11 +12556,9 @@
       <c r="F439" t="s">
         <v>11</v>
       </c>
-      <c r="G439" t="s">
-        <v>12</v>
-      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13508,13 +12578,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>418</v>
-      </c>
-      <c r="G440" t="s">
-        <v>419</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13536,11 +12604,9 @@
       <c r="F441" t="s">
         <v>11</v>
       </c>
-      <c r="G441" t="s">
-        <v>12</v>
-      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13560,13 +12626,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>458</v>
-      </c>
-      <c r="G442" t="s">
-        <v>459</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13586,13 +12650,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>19</v>
-      </c>
-      <c r="G443" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13612,13 +12674,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>19</v>
-      </c>
-      <c r="G444" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13638,13 +12698,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>458</v>
-      </c>
-      <c r="G445" t="s">
-        <v>459</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13664,13 +12722,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>19</v>
-      </c>
-      <c r="G446" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13690,13 +12746,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>458</v>
-      </c>
-      <c r="G447" t="s">
-        <v>459</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13716,13 +12770,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>19</v>
-      </c>
-      <c r="G448" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13742,13 +12794,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>458</v>
-      </c>
-      <c r="G449" t="s">
-        <v>459</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13768,13 +12818,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>19</v>
-      </c>
-      <c r="G450" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13794,13 +12842,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>458</v>
-      </c>
-      <c r="G451" t="s">
-        <v>459</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13820,13 +12866,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>19</v>
-      </c>
-      <c r="G452" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13846,13 +12890,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>458</v>
-      </c>
-      <c r="G453" t="s">
-        <v>459</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13872,13 +12914,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>19</v>
-      </c>
-      <c r="G454" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13898,13 +12938,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>458</v>
-      </c>
-      <c r="G455" t="s">
-        <v>459</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13924,13 +12962,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>19</v>
-      </c>
-      <c r="G456" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13950,13 +12986,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>458</v>
-      </c>
-      <c r="G457" t="s">
-        <v>459</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13976,13 +13010,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>19</v>
-      </c>
-      <c r="G458" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14002,13 +13034,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>19</v>
-      </c>
-      <c r="G459" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14028,13 +13058,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>458</v>
-      </c>
-      <c r="G460" t="s">
-        <v>459</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14056,11 +13084,9 @@
       <c r="F461" t="s">
         <v>11</v>
       </c>
-      <c r="G461" t="s">
-        <v>12</v>
-      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14080,13 +13106,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>479</v>
-      </c>
-      <c r="G462" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14106,13 +13130,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>19</v>
-      </c>
-      <c r="G463" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14132,13 +13154,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>479</v>
-      </c>
-      <c r="G464" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14158,13 +13178,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>19</v>
-      </c>
-      <c r="G465" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14184,13 +13202,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>479</v>
-      </c>
-      <c r="G466" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14210,13 +13226,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>19</v>
-      </c>
-      <c r="G467" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14236,13 +13250,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>479</v>
-      </c>
-      <c r="G468" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14262,13 +13274,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>19</v>
-      </c>
-      <c r="G469" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14288,13 +13298,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>479</v>
-      </c>
-      <c r="G470" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14314,13 +13322,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>19</v>
-      </c>
-      <c r="G471" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14340,13 +13346,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>479</v>
-      </c>
-      <c r="G472" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14366,13 +13370,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>19</v>
-      </c>
-      <c r="G473" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14392,13 +13394,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>479</v>
-      </c>
-      <c r="G474" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14418,13 +13418,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>19</v>
-      </c>
-      <c r="G475" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14444,13 +13442,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>479</v>
-      </c>
-      <c r="G476" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14470,13 +13466,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>19</v>
-      </c>
-      <c r="G477" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14496,13 +13490,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>479</v>
-      </c>
-      <c r="G478" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14522,13 +13514,11 @@
         <v>10</v>
       </c>
       <c r="F479" t="s">
-        <v>19</v>
-      </c>
-      <c r="G479" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14548,13 +13538,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>479</v>
-      </c>
-      <c r="G480" t="s">
+        <v>462</v>
+      </c>
+      <c r="G480" t="s"/>
+      <c r="H480" t="s">
         <v>480</v>
-      </c>
-      <c r="H480" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14574,13 +13562,11 @@
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>19</v>
-      </c>
-      <c r="G481" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14600,13 +13586,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>479</v>
-      </c>
-      <c r="G482" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14626,13 +13610,11 @@
         <v>10</v>
       </c>
       <c r="F483" t="s">
-        <v>19</v>
-      </c>
-      <c r="G483" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14652,13 +13634,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>479</v>
-      </c>
-      <c r="G484" t="s">
-        <v>480</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14680,11 +13660,9 @@
       <c r="F485" t="s">
         <v>11</v>
       </c>
-      <c r="G485" t="s">
-        <v>12</v>
-      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14704,13 +13682,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>19</v>
-      </c>
-      <c r="G486" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14732,11 +13708,9 @@
       <c r="F487" t="s">
         <v>11</v>
       </c>
-      <c r="G487" t="s">
-        <v>12</v>
-      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14756,13 +13730,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>19</v>
-      </c>
-      <c r="G488" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14784,11 +13756,9 @@
       <c r="F489" t="s">
         <v>11</v>
       </c>
-      <c r="G489" t="s">
-        <v>12</v>
-      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14808,13 +13778,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>19</v>
-      </c>
-      <c r="G490" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14836,11 +13804,9 @@
       <c r="F491" t="s">
         <v>11</v>
       </c>
-      <c r="G491" t="s">
-        <v>12</v>
-      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14860,13 +13826,11 @@
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>19</v>
-      </c>
-      <c r="G492" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14888,11 +13852,9 @@
       <c r="F493" t="s">
         <v>11</v>
       </c>
-      <c r="G493" t="s">
-        <v>12</v>
-      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14912,13 +13874,11 @@
         <v>10</v>
       </c>
       <c r="F494" t="s">
-        <v>124</v>
-      </c>
-      <c r="G494" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14938,13 +13898,11 @@
         <v>10</v>
       </c>
       <c r="F495" t="s">
-        <v>19</v>
-      </c>
-      <c r="G495" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14964,13 +13922,11 @@
         <v>10</v>
       </c>
       <c r="F496" t="s">
-        <v>124</v>
-      </c>
-      <c r="G496" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -14990,13 +13946,11 @@
         <v>10</v>
       </c>
       <c r="F497" t="s">
-        <v>19</v>
-      </c>
-      <c r="G497" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15016,13 +13970,11 @@
         <v>10</v>
       </c>
       <c r="F498" t="s">
-        <v>124</v>
-      </c>
-      <c r="G498" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15042,13 +13994,11 @@
         <v>10</v>
       </c>
       <c r="F499" t="s">
-        <v>19</v>
-      </c>
-      <c r="G499" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G499" t="s"/>
       <c r="H499" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15068,13 +14018,11 @@
         <v>10</v>
       </c>
       <c r="F500" t="s">
-        <v>124</v>
-      </c>
-      <c r="G500" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G500" t="s"/>
       <c r="H500" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15094,13 +14042,11 @@
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>19</v>
-      </c>
-      <c r="G501" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G501" t="s"/>
       <c r="H501" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15120,13 +14066,11 @@
         <v>10</v>
       </c>
       <c r="F502" t="s">
-        <v>124</v>
-      </c>
-      <c r="G502" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G502" t="s"/>
       <c r="H502" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15146,13 +14090,11 @@
         <v>10</v>
       </c>
       <c r="F503" t="s">
-        <v>19</v>
-      </c>
-      <c r="G503" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G503" t="s"/>
       <c r="H503" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15172,13 +14114,11 @@
         <v>10</v>
       </c>
       <c r="F504" t="s">
-        <v>124</v>
-      </c>
-      <c r="G504" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G504" t="s"/>
       <c r="H504" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15198,13 +14138,11 @@
         <v>10</v>
       </c>
       <c r="F505" t="s">
-        <v>19</v>
-      </c>
-      <c r="G505" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G505" t="s"/>
       <c r="H505" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15224,13 +14162,11 @@
         <v>10</v>
       </c>
       <c r="F506" t="s">
-        <v>124</v>
-      </c>
-      <c r="G506" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G506" t="s"/>
       <c r="H506" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15250,13 +14186,11 @@
         <v>10</v>
       </c>
       <c r="F507" t="s">
-        <v>19</v>
-      </c>
-      <c r="G507" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G507" t="s"/>
       <c r="H507" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15276,13 +14210,11 @@
         <v>10</v>
       </c>
       <c r="F508" t="s">
-        <v>124</v>
-      </c>
-      <c r="G508" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G508" t="s"/>
       <c r="H508" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15302,13 +14234,11 @@
         <v>10</v>
       </c>
       <c r="F509" t="s">
-        <v>19</v>
-      </c>
-      <c r="G509" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G509" t="s"/>
       <c r="H509" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15328,13 +14258,11 @@
         <v>10</v>
       </c>
       <c r="F510" t="s">
-        <v>124</v>
-      </c>
-      <c r="G510" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G510" t="s"/>
       <c r="H510" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15354,13 +14282,11 @@
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>19</v>
-      </c>
-      <c r="G511" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G511" t="s"/>
       <c r="H511" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15380,13 +14306,11 @@
         <v>10</v>
       </c>
       <c r="F512" t="s">
-        <v>124</v>
-      </c>
-      <c r="G512" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G512" t="s"/>
       <c r="H512" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15406,13 +14330,11 @@
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>19</v>
-      </c>
-      <c r="G513" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G513" t="s"/>
       <c r="H513" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15432,13 +14354,11 @@
         <v>10</v>
       </c>
       <c r="F514" t="s">
-        <v>124</v>
-      </c>
-      <c r="G514" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G514" t="s"/>
       <c r="H514" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15458,13 +14378,11 @@
         <v>10</v>
       </c>
       <c r="F515" t="s">
-        <v>19</v>
-      </c>
-      <c r="G515" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G515" t="s"/>
       <c r="H515" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15484,13 +14402,11 @@
         <v>10</v>
       </c>
       <c r="F516" t="s">
-        <v>124</v>
-      </c>
-      <c r="G516" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G516" t="s"/>
       <c r="H516" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15510,13 +14426,11 @@
         <v>10</v>
       </c>
       <c r="F517" t="s">
-        <v>19</v>
-      </c>
-      <c r="G517" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G517" t="s"/>
       <c r="H517" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15536,13 +14450,11 @@
         <v>10</v>
       </c>
       <c r="F518" t="s">
-        <v>124</v>
-      </c>
-      <c r="G518" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G518" t="s"/>
       <c r="H518" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15562,13 +14474,11 @@
         <v>10</v>
       </c>
       <c r="F519" t="s">
-        <v>19</v>
-      </c>
-      <c r="G519" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G519" t="s"/>
       <c r="H519" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15588,13 +14498,11 @@
         <v>10</v>
       </c>
       <c r="F520" t="s">
-        <v>124</v>
-      </c>
-      <c r="G520" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G520" t="s"/>
       <c r="H520" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15614,13 +14522,11 @@
         <v>10</v>
       </c>
       <c r="F521" t="s">
-        <v>19</v>
-      </c>
-      <c r="G521" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G521" t="s"/>
       <c r="H521" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15640,13 +14546,11 @@
         <v>10</v>
       </c>
       <c r="F522" t="s">
-        <v>124</v>
-      </c>
-      <c r="G522" t="s">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G522" t="s"/>
       <c r="H522" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15668,11 +14572,9 @@
       <c r="F523" t="s">
         <v>11</v>
       </c>
-      <c r="G523" t="s">
-        <v>12</v>
-      </c>
+      <c r="G523" t="s"/>
       <c r="H523" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15692,13 +14594,11 @@
         <v>10</v>
       </c>
       <c r="F524" t="s">
-        <v>14</v>
-      </c>
-      <c r="G524" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G524" t="s"/>
       <c r="H524" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15718,13 +14618,11 @@
         <v>10</v>
       </c>
       <c r="F525" t="s">
-        <v>19</v>
-      </c>
-      <c r="G525" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G525" t="s"/>
       <c r="H525" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15744,13 +14642,11 @@
         <v>10</v>
       </c>
       <c r="F526" t="s">
-        <v>14</v>
-      </c>
-      <c r="G526" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G526" t="s"/>
       <c r="H526" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15770,13 +14666,11 @@
         <v>10</v>
       </c>
       <c r="F527" t="s">
-        <v>19</v>
-      </c>
-      <c r="G527" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G527" t="s"/>
       <c r="H527" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15796,13 +14690,11 @@
         <v>10</v>
       </c>
       <c r="F528" t="s">
-        <v>14</v>
-      </c>
-      <c r="G528" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G528" t="s"/>
       <c r="H528" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15822,13 +14714,11 @@
         <v>10</v>
       </c>
       <c r="F529" t="s">
-        <v>19</v>
-      </c>
-      <c r="G529" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G529" t="s"/>
       <c r="H529" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15848,13 +14738,11 @@
         <v>10</v>
       </c>
       <c r="F530" t="s">
-        <v>14</v>
-      </c>
-      <c r="G530" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G530" t="s"/>
       <c r="H530" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15874,13 +14762,11 @@
         <v>10</v>
       </c>
       <c r="F531" t="s">
-        <v>19</v>
-      </c>
-      <c r="G531" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G531" t="s"/>
       <c r="H531" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15900,13 +14786,11 @@
         <v>10</v>
       </c>
       <c r="F532" t="s">
-        <v>14</v>
-      </c>
-      <c r="G532" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G532" t="s"/>
       <c r="H532" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15926,13 +14810,11 @@
         <v>10</v>
       </c>
       <c r="F533" t="s">
-        <v>19</v>
-      </c>
-      <c r="G533" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G533" t="s"/>
       <c r="H533" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15952,13 +14834,11 @@
         <v>10</v>
       </c>
       <c r="F534" t="s">
-        <v>14</v>
-      </c>
-      <c r="G534" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G534" t="s"/>
       <c r="H534" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15978,13 +14858,11 @@
         <v>10</v>
       </c>
       <c r="F535" t="s">
-        <v>19</v>
-      </c>
-      <c r="G535" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G535" t="s"/>
       <c r="H535" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16004,13 +14882,11 @@
         <v>10</v>
       </c>
       <c r="F536" t="s">
-        <v>14</v>
-      </c>
-      <c r="G536" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G536" t="s"/>
       <c r="H536" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16030,13 +14906,11 @@
         <v>10</v>
       </c>
       <c r="F537" t="s">
-        <v>19</v>
-      </c>
-      <c r="G537" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G537" t="s"/>
       <c r="H537" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16056,13 +14930,11 @@
         <v>10</v>
       </c>
       <c r="F538" t="s">
-        <v>14</v>
-      </c>
-      <c r="G538" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G538" t="s"/>
       <c r="H538" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16082,13 +14954,11 @@
         <v>10</v>
       </c>
       <c r="F539" t="s">
-        <v>19</v>
-      </c>
-      <c r="G539" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G539" t="s"/>
       <c r="H539" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16108,13 +14978,11 @@
         <v>10</v>
       </c>
       <c r="F540" t="s">
-        <v>14</v>
-      </c>
-      <c r="G540" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G540" t="s"/>
       <c r="H540" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16134,13 +15002,11 @@
         <v>10</v>
       </c>
       <c r="F541" t="s">
-        <v>19</v>
-      </c>
-      <c r="G541" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G541" t="s"/>
       <c r="H541" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16160,13 +15026,11 @@
         <v>10</v>
       </c>
       <c r="F542" t="s">
-        <v>14</v>
-      </c>
-      <c r="G542" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G542" t="s"/>
       <c r="H542" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16186,13 +15050,11 @@
         <v>10</v>
       </c>
       <c r="F543" t="s">
-        <v>19</v>
-      </c>
-      <c r="G543" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G543" t="s"/>
       <c r="H543" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16212,13 +15074,11 @@
         <v>10</v>
       </c>
       <c r="F544" t="s">
-        <v>14</v>
-      </c>
-      <c r="G544" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G544" t="s"/>
       <c r="H544" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16238,13 +15098,11 @@
         <v>10</v>
       </c>
       <c r="F545" t="s">
-        <v>19</v>
-      </c>
-      <c r="G545" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G545" t="s"/>
       <c r="H545" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16264,13 +15122,11 @@
         <v>10</v>
       </c>
       <c r="F546" t="s">
-        <v>14</v>
-      </c>
-      <c r="G546" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G546" t="s"/>
       <c r="H546" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16290,13 +15146,11 @@
         <v>10</v>
       </c>
       <c r="F547" t="s">
-        <v>19</v>
-      </c>
-      <c r="G547" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G547" t="s"/>
       <c r="H547" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16316,13 +15170,11 @@
         <v>10</v>
       </c>
       <c r="F548" t="s">
-        <v>14</v>
-      </c>
-      <c r="G548" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G548" t="s"/>
       <c r="H548" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16342,13 +15194,11 @@
         <v>10</v>
       </c>
       <c r="F549" t="s">
-        <v>19</v>
-      </c>
-      <c r="G549" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G549" t="s"/>
       <c r="H549" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16368,13 +15218,11 @@
         <v>10</v>
       </c>
       <c r="F550" t="s">
-        <v>14</v>
-      </c>
-      <c r="G550" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G550" t="s"/>
       <c r="H550" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16394,13 +15242,11 @@
         <v>10</v>
       </c>
       <c r="F551" t="s">
-        <v>19</v>
-      </c>
-      <c r="G551" t="s">
-        <v>24</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G551" t="s"/>
       <c r="H551" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16420,13 +15266,11 @@
         <v>10</v>
       </c>
       <c r="F552" t="s">
-        <v>14</v>
-      </c>
-      <c r="G552" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G552" t="s"/>
       <c r="H552" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16448,11 +15292,9 @@
       <c r="F553" t="s">
         <v>11</v>
       </c>
-      <c r="G553" t="s">
-        <v>12</v>
-      </c>
+      <c r="G553" t="s"/>
       <c r="H553" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
